--- a/import/import_template.xlsx
+++ b/import/import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sia2\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B52EA8-8DE9-4759-BED3-458776F533F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D3C767-DD35-499A-B14E-6B79252CE5FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C232A32C-A630-418B-86F7-66961331C11A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>NO.</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>M/F/C</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>FACILITY</t>
@@ -165,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -201,16 +198,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -527,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703DD192-38B3-449D-9A8F-57896F50A752}">
-  <dimension ref="A1:AA211"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -563,15 +560,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>25</v>
@@ -582,14 +579,14 @@
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="5"/>
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
@@ -603,24 +600,24 @@
         <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -639,22 +636,22 @@
         <v>14</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -671,7 +668,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -695,7 +692,7 @@
         <v>43671</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>22</v>
@@ -726,53 +723,6 @@
       </c>
       <c r="AA3" s="1">
         <v>1000</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O211" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P211" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -819,37 +769,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/import/import_template.xlsx
+++ b/import/import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sia2\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D3C767-DD35-499A-B14E-6B79252CE5FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4064B8-7C93-4C1E-AFAC-1ECEF252F0E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C232A32C-A630-418B-86F7-66961331C11A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>NO.</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>CC BNI</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703DD192-38B3-449D-9A8F-57896F50A752}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -700,6 +705,18 @@
       <c r="O3" s="1">
         <v>6</v>
       </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="T3" s="1">
         <v>1000</v>
       </c>
@@ -732,7 +749,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="T1:AA1"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F210" xr:uid="{D406FC02-8635-4B46-B291-24D8CB1EA46B}">
       <formula1>"M, F, C"</formula1>
     </dataValidation>
@@ -741,7 +758,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BDB083A2-1077-4E2A-8738-052ED3694F6E}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$50</xm:f>

--- a/import/import_template.xlsx
+++ b/import/import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sia2\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8302F99E-0CFF-4BDD-85F7-4B66E180C9F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53261B-5BF5-4AB0-8CEF-35E411895835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C232A32C-A630-418B-86F7-66961331C11A}"/>
   </bookViews>
@@ -157,7 +157,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>CC MDR</t>
+    <t>CC BNI</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703DD192-38B3-449D-9A8F-57896F50A752}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/import/import_template.xlsx
+++ b/import/import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sia2\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA53261B-5BF5-4AB0-8CEF-35E411895835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDC3092-3F8D-4BD7-B1B7-E491838A9F76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C232A32C-A630-418B-86F7-66961331C11A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>NO.</t>
   </si>
@@ -76,42 +76,15 @@
     <t>RP</t>
   </si>
   <si>
-    <t>T-38</t>
-  </si>
-  <si>
-    <t>ANTHONY PARIS</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>OZ</t>
-  </si>
-  <si>
-    <t>6N</t>
-  </si>
-  <si>
-    <t>SUP</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>ID NO.</t>
   </si>
   <si>
-    <t>3515112412740001</t>
-  </si>
-  <si>
     <t>M/F/C</t>
   </si>
   <si>
     <t>FACILITY</t>
   </si>
   <si>
-    <t>AC</t>
-  </si>
-  <si>
     <t>Anak</t>
   </si>
   <si>
@@ -152,9 +125,6 @@
   </si>
   <si>
     <t>CC BCA</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
   <si>
     <t>CC BNI</t>
@@ -532,9 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703DD192-38B3-449D-9A8F-57896F50A752}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -576,16 +544,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>4</v>
@@ -608,16 +576,16 @@
         <v>9</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
@@ -642,100 +610,27 @@
         <v>14</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2">
-        <v>43665</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2">
-        <v>43665</v>
-      </c>
-      <c r="L3" s="2">
-        <v>43671</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1">
-        <v>6</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="U3" s="1">
-        <v>1001</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1002</v>
-      </c>
-      <c r="W3" s="1">
-        <v>1003</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1004</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>1005</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="S3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -744,7 +639,7 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="T1:Y1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F210" xr:uid="{D406FC02-8635-4B46-B291-24D8CB1EA46B}">
       <formula1>"M, F, C"</formula1>
     </dataValidation>
@@ -753,7 +648,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BDB083A2-1077-4E2A-8738-052ED3694F6E}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$50</xm:f>
@@ -781,37 +676,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/import/import_template.xlsx
+++ b/import/import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sia2\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEC8FE7-B1AB-45B9-AAE1-C2AEDC68E873}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88D452-EA14-4213-8F99-446C197DB990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>FEE TANAS</t>
   </si>
   <si>
-    <t>PRICE TO PAY</t>
-  </si>
-  <si>
     <t>REMARKS</t>
   </si>
   <si>
@@ -134,6 +131,10 @@
   </si>
   <si>
     <t>T-45</t>
+  </si>
+  <si>
+    <t>PRICE
+TO PAY</t>
   </si>
 </sst>
 </file>
@@ -197,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -207,30 +208,219 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -239,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -256,38 +446,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,361 +841,354 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="9" width="8.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="39" customWidth="1"/>
     <col min="11" max="17" width="8.28515625" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="C3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:17" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="L7" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>1</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30">
         <v>2</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="13" t="s">
+      <c r="E8" s="31" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
-        <v>1</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="F8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="G8" s="30">
         <v>1000</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="30">
         <v>1000</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="30">
         <v>1000</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="14">
+      <c r="J8" s="40"/>
+      <c r="K8" s="30">
         <v>1000</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="32"/>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="23"/>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="23"/>
     </row>
     <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="23"/>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="23"/>
     </row>
     <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="23"/>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="23"/>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-    </row>
-    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="23"/>
+    </row>
+    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C6:E6"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -935,6 +1196,11 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/import/import_template.xlsx
+++ b/import/import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sia2\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD88D452-EA14-4213-8F99-446C197DB990}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4C2923-1474-40E9-BDED-C185D92E071D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>TRIP</t>
   </si>
@@ -135,6 +135,9 @@
   <si>
     <t>PRICE
 TO PAY</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -198,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -207,13 +210,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
@@ -222,7 +225,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
@@ -240,7 +243,7 @@
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="medium">
@@ -252,51 +255,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
@@ -423,13 +381,22 @@
       <bottom style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -449,112 +416,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -837,9 +768,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -853,45 +784,45 @@
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
     <col min="7" max="9" width="8.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="39" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="11" customWidth="1"/>
     <col min="11" max="17" width="8.28515625" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -902,290 +833,121 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="35" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="35" t="s">
+      <c r="F7" s="26"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="35" t="s">
+      <c r="M7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="O7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="Q7" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="A8" s="27">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="30">
-        <v>2</v>
-      </c>
-      <c r="E8" s="31" t="s">
+      <c r="D8" s="27">
+        <v>3</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="27">
         <v>1000</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="27">
         <v>1000</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="27">
         <v>1000</v>
       </c>
-      <c r="J8" s="40"/>
-      <c r="K8" s="30">
+      <c r="J8" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="27">
         <v>1000</v>
       </c>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="23"/>
-    </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="23"/>
-    </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="23"/>
-    </row>
-    <row r="13" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="23"/>
-    </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="23"/>
-    </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="23"/>
-    </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="23"/>
-    </row>
-    <row r="17" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/import/import_template.xlsx
+++ b/import/import_template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sia2\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4C2923-1474-40E9-BDED-C185D92E071D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1FD8C-4CC0-4B8C-ACD6-0416960583C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
-  <si>
-    <t>TRIP</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>NO</t>
   </si>
@@ -115,29 +112,32 @@
     <t>CC MDR</t>
   </si>
   <si>
-    <t>12-04-2021</t>
-  </si>
-  <si>
-    <t>VIP</t>
-  </si>
-  <si>
-    <t>NICK CHONG</t>
-  </si>
-  <si>
-    <t>GERALDINE</t>
-  </si>
-  <si>
     <t>TGL (DD-MM-YYYY)</t>
-  </si>
-  <si>
-    <t>T-45</t>
   </si>
   <si>
     <t>PRICE
 TO PAY</t>
   </si>
   <si>
-    <t>.</t>
+    <t>KURS</t>
+  </si>
+  <si>
+    <t>BKM</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Pembuat Bukti,</t>
+  </si>
+  <si>
+    <t>( MYS )</t>
+  </si>
+  <si>
+    <t>ACC Direktur</t>
+  </si>
+  <si>
+    <t>( LAURENZ )</t>
   </si>
 </sst>
 </file>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -300,103 +300,64 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -419,9 +380,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -431,28 +389,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,32 +425,23 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
@@ -784,46 +739,44 @@
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
     <col min="7" max="9" width="8.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" style="10" customWidth="1"/>
     <col min="11" max="17" width="8.28515625" style="2" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="4"/>
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
@@ -833,124 +786,128 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="H6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="I6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="20" t="s">
+      <c r="K6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="23"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="17"/>
     </row>
     <row r="7" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="9" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
-        <v>1</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="27">
-        <v>3</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="27">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="27">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="27">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="30" t="s">
+    </row>
+    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="27">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -958,11 +915,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/import/import_template.xlsx
+++ b/import/import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sia2\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D1FD8C-4CC0-4B8C-ACD6-0416960583C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DDEFBC-9D0B-4DFB-8A1D-D3B75D7EC31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -404,19 +404,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,23 +428,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -746,26 +758,26 @@
   <sheetData>
     <row r="1" spans="1:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="4"/>
@@ -773,9 +785,9 @@
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="11"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -786,45 +798,45 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
@@ -834,11 +846,11 @@
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
       <c r="K7" s="8" t="s">
         <v>10</v>
       </c>
@@ -881,33 +893,47 @@
       <c r="Q8" s="12"/>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+    </row>
+    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="28" t="s">
+    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L12" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="6" t="s">
+    <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B2:F2"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -915,6 +941,11 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/import/import_template.xlsx
+++ b/import/import_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sia2\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DDEFBC-9D0B-4DFB-8A1D-D3B75D7EC31B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C119F-325E-48D7-8810-262568968E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>NO</t>
   </si>
@@ -201,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -339,16 +339,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
-      <right style="medium">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
+      <right/>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -357,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -389,9 +433,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -407,19 +448,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -428,32 +484,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -739,7 +801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -758,39 +820,47 @@
   <sheetData>
     <row r="1" spans="1:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="31">
+        <v>14000</v>
+      </c>
+      <c r="H4" s="31">
+        <v>17500</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
@@ -798,45 +868,45 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="26"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="22"/>
     </row>
     <row r="7" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
@@ -846,11 +916,11 @@
       <c r="E7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="8" t="s">
         <v>10</v>
       </c>
@@ -874,42 +944,42 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
     </row>
     <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -917,10 +987,10 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="16" t="s">
         <v>24</v>
       </c>
     </row>
@@ -934,6 +1004,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="K6:Q6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -941,11 +1016,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/import/import_template.xlsx
+++ b/import/import_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sia2\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995C119F-325E-48D7-8810-262568968E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCFBC9C-F6BB-441D-ABF3-79B0D03A77E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>selar</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{53CB6386-B876-4575-BEFF-3F4C04EB809A}">
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{53CB6386-B876-4575-BEFF-3F4C04EB809A}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>NO</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>( LAURENZ )</t>
+  </si>
+  <si>
+    <t>M/F</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>ID CARD / PASSPORT</t>
   </si>
 </sst>
 </file>
@@ -201,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -324,21 +333,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
@@ -353,7 +347,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
       <top style="medium">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
@@ -363,19 +359,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
@@ -385,10 +374,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
       <top style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </top>
@@ -401,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -466,17 +455,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -484,37 +467,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,225 +783,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="10" customWidth="1"/>
-    <col min="11" max="17" width="8.28515625" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="25.7109375" style="10" customWidth="1"/>
+    <col min="14" max="20" width="8.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+    <row r="1" spans="1:20" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="31" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="31">
+      <c r="C4" s="36"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="23">
         <v>14000</v>
       </c>
-      <c r="H4" s="31">
+      <c r="F4" s="23">
         <v>17500</v>
       </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
     </row>
-    <row r="5" spans="1:17" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:20" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="J6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="K6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="M6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="N6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="22"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="28"/>
     </row>
-    <row r="7" spans="1:17" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:20" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="8" t="s">
+      <c r="I7" s="31"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="O7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="Q7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="T7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="18"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="20"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
       <c r="K9" s="17"/>
       <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="M9" s="20"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
     </row>
-    <row r="10" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="16" t="s">
+    <row r="12" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="4:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="6" t="s">
+    <row r="17" spans="7:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="O17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="K6:Q6"/>
+  <mergeCells count="10">
+    <mergeCell ref="N6:T6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
